--- a/Boston Red Sox.xlsx
+++ b/Boston Red Sox.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
   <si>
     <t>yearID</t>
   </si>
@@ -22,7 +22,13 @@
     <t>teamID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>attendance</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>ID</t>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>salary</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>BOS</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,741 +429,840 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1985</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>1786633</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>81</v>
+      </c>
+      <c r="F2">
         <v>1425</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>48000</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>10897560</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1986</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>2147641</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>95</v>
+      </c>
+      <c r="F3">
         <v>18067</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>56434</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>14402239</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1987</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>2231551</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>78</v>
+      </c>
+      <c r="F4">
         <v>20370</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>29580</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>10144167</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1988</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>2464851</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>89</v>
+      </c>
+      <c r="F5">
         <v>47604</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>47952</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>13896092</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1989</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>2510012</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>83</v>
+      </c>
+      <c r="F6">
         <v>68835</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>52624</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>17481748</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1990</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>2528986</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>88</v>
+      </c>
+      <c r="F7">
         <v>107984</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>65600</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>20558333</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1991</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>2562435</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>84</v>
+      </c>
+      <c r="F8">
         <v>126825</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>62280</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>35167500</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1992</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>2468574</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>73</v>
+      </c>
+      <c r="F9">
         <v>152551</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>65162</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>43610584</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1993</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>2422021</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
         <v>176421</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>65968</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>37120583</v>
       </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1994</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>1775818</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="F11">
         <v>198285</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>64680</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>37859084</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1995</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>2164410</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>86</v>
+      </c>
+      <c r="F12">
         <v>277574</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>80808</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>32455518</v>
       </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1996</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
         <v>2315231</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>85</v>
+      </c>
+      <c r="F13">
         <v>305406</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>79632</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>42393500</v>
       </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1997</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
         <v>2226136</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>78</v>
+      </c>
+      <c r="F14">
         <v>321045</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>76194</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>43558750</v>
       </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1998</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>2314704</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>92</v>
+      </c>
+      <c r="F15">
         <v>343464</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>74910</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>56757000</v>
       </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1999</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>2446162</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>94</v>
+      </c>
+      <c r="F16">
         <v>353741</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>71300</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>63497500</v>
       </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2000</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
         <v>2585895</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>85</v>
+      </c>
+      <c r="F17">
         <v>371865</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>69900</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>77940333</v>
       </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2001</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
         <v>2625333</v>
       </c>
-      <c r="D18">
+      <c r="E18">
+        <v>82</v>
+      </c>
+      <c r="F18">
         <v>423472</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>75520</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>110035833</v>
       </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2002</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
         <v>2650862</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>93</v>
+      </c>
+      <c r="F19">
         <v>422865</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>71700</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>108366060</v>
       </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2003</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
         <v>2724165</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>95</v>
+      </c>
+      <c r="F20">
         <v>403029</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>65340</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>99946500</v>
       </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2004</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
         <v>2837294</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <v>98</v>
+      </c>
+      <c r="F21">
         <v>472785</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>73500</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>127298500</v>
       </c>
-      <c r="G21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2005</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
         <v>2847888</v>
       </c>
-      <c r="D22">
+      <c r="E22">
+        <v>95</v>
+      </c>
+      <c r="F22">
         <v>463610</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>69412</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>123505125</v>
       </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2006</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
         <v>2930588</v>
       </c>
-      <c r="D23">
+      <c r="E23">
+        <v>86</v>
+      </c>
+      <c r="F23">
         <v>469557</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>67743</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>120099824</v>
       </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2007</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
         <v>2970755</v>
       </c>
-      <c r="D24">
+      <c r="E24">
+        <v>96</v>
+      </c>
+      <c r="F24">
         <v>509894</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>71092</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>143026214</v>
       </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2008</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
         <v>3048250</v>
       </c>
-      <c r="D25">
+      <c r="E25">
+        <v>95</v>
+      </c>
+      <c r="F25">
         <v>533666</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>71932</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>133390035</v>
       </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2009</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
         <v>3062699</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>95</v>
+      </c>
+      <c r="F26">
         <v>577303</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>75371</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>121345999</v>
       </c>
-      <c r="G26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2010</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
         <v>3046443</v>
       </c>
-      <c r="D27">
+      <c r="E27">
+        <v>89</v>
+      </c>
+      <c r="F27">
         <v>600822</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>76241</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>162447333</v>
       </c>
-      <c r="G27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2011</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
         <v>3054001</v>
       </c>
-      <c r="D28">
+      <c r="E28">
+        <v>90</v>
+      </c>
+      <c r="F28">
         <v>581769</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>71793</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>161762475</v>
       </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2012</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
         <v>3043003</v>
       </c>
-      <c r="D29">
+      <c r="E29">
+        <v>69</v>
+      </c>
+      <c r="F29">
         <v>761413</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>91426</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>173186617</v>
       </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2013</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
         <v>2833333</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>97</v>
+      </c>
+      <c r="F30">
         <v>673931</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>78851</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>151530000</v>
       </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
         <v>2956089</v>
       </c>
-      <c r="D31">
+      <c r="E31">
+        <v>71</v>
+      </c>
+      <c r="F31">
         <v>745550</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>85219</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>139019929</v>
       </c>
-      <c r="G31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>2015</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
         <v>2880694</v>
       </c>
-      <c r="D32">
+      <c r="E32">
+        <v>78</v>
+      </c>
+      <c r="F32">
         <v>795376</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>88928</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>181103400</v>
       </c>
-      <c r="G32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>2016</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
         <v>2955434</v>
       </c>
-      <c r="D33">
+      <c r="E33">
+        <v>93</v>
+      </c>
+      <c r="F33">
         <v>744546</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>81461</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>188545761</v>
-      </c>
-      <c r="G33" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
